--- a/app/data/tests/milkproject_plan.xlsx
+++ b/app/data/tests/milkproject_plan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="670">
   <si>
     <t xml:space="preserve">Отчет от</t>
   </si>
@@ -44159,7 +44159,7 @@
   <dimension ref="A1:AMJ229"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S14" activeCellId="0" sqref="S14"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44359,8 +44359,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="28" t="n">
-        <f aca="false">IF(E5="","",VLOOKUP(E5, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C5" s="28" t="n">
         <f aca="false">IF(E5="","",VLOOKUP(E5, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
@@ -44373,7 +44372,7 @@
         <v>202</v>
       </c>
       <c r="F5" s="30" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="G5" s="31" t="str">
         <f aca="true">IF(I5="","",(INDIRECT("M" &amp; ROW() - 1) - M5))</f>
@@ -44385,7 +44384,7 @@
       </c>
       <c r="J5" s="34" t="n">
         <f aca="true">IF(I5 = "-", -INDIRECT("B" &amp; ROW() - 1),F5)</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K5" s="33" t="n">
         <f aca="true">IF(I5 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J5)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J5)))), 0)</f>
@@ -44434,14 +44433,14 @@
       </c>
       <c r="H6" s="32" t="n">
         <f aca="true">IF(I6 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="I6" s="36" t="s">
         <v>669</v>
       </c>
       <c r="J6" s="34" t="n">
         <f aca="true">IF(I6 = "-", -INDIRECT("B" &amp; ROW() - 1),F6)</f>
-        <v>-150</v>
+        <v>-300</v>
       </c>
       <c r="K6" s="33" t="n">
         <f aca="true">IF(I6 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J6)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J6)))), 0)</f>
@@ -44580,16 +44579,27 @@
       <c r="AMJ8" s="1"/>
     </row>
     <row r="9" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="32" t="str">
+      <c r="A9" s="27" t="n">
+        <f aca="true">IF(I9="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L9)))))</f>
+        <v>4</v>
+      </c>
+      <c r="B9" s="28" t="n">
         <f aca="false">IF(E9="","",VLOOKUP(E9, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C9" s="32" t="str">
+        <v>300</v>
+      </c>
+      <c r="C9" s="28" t="n">
         <f aca="false">IF(E9="","",VLOOKUP(E9, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
-        <v/>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="F9" s="39"/>
+        <v>45</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="30" t="n">
+        <v>150</v>
+      </c>
       <c r="G9" s="31" t="str">
         <f aca="true">IF(I9="","",(INDIRECT("M" &amp; ROW() - 1) - M9))</f>
         <v/>
@@ -44600,7 +44610,7 @@
       </c>
       <c r="J9" s="34" t="n">
         <f aca="true">IF(I9 = "-", -INDIRECT("B" &amp; ROW() - 1),F9)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K9" s="33" t="n">
         <f aca="true">IF(I9 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J9)))), 0)</f>
@@ -44614,6 +44624,7 @@
         <f aca="true">IF(K9 = 0, INDIRECT("M" &amp; ROW() - 1), K9)</f>
         <v>0</v>
       </c>
+      <c r="O9" s="35"/>
       <c r="Q9" s="32" t="str">
         <f aca="true">IF(P9 = "", "", P9 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
@@ -44626,16 +44637,26 @@
       <c r="AMJ9" s="1"/>
     </row>
     <row r="10" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="32" t="str">
-        <f aca="false">IF(E10="","",VLOOKUP(E10, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C10" s="32" t="str">
+      <c r="A10" s="27" t="n">
+        <f aca="true">IF(I10="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L10)))))</f>
+        <v>4</v>
+      </c>
+      <c r="B10" s="28" t="n">
+        <v>300</v>
+      </c>
+      <c r="C10" s="28" t="n">
         <f aca="false">IF(E10="","",VLOOKUP(E10, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
-        <v/>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="F10" s="39"/>
+        <v>45</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="30" t="n">
+        <v>150</v>
+      </c>
       <c r="G10" s="31" t="str">
         <f aca="true">IF(I10="","",(INDIRECT("M" &amp; ROW() - 1) - M10))</f>
         <v/>
@@ -44646,7 +44667,7 @@
       </c>
       <c r="J10" s="34" t="n">
         <f aca="true">IF(I10 = "-", -INDIRECT("B" &amp; ROW() - 1),F10)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K10" s="33" t="n">
         <f aca="true">IF(I10 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J10)))), 0)</f>
@@ -44660,6 +44681,7 @@
         <f aca="true">IF(K10 = 0, INDIRECT("M" &amp; ROW() - 1), K10)</f>
         <v>0</v>
       </c>
+      <c r="O10" s="35"/>
       <c r="Q10" s="32" t="str">
         <f aca="true">IF(P10 = "", "", P10 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
@@ -44672,27 +44694,36 @@
       <c r="AMJ10" s="1"/>
     </row>
     <row r="11" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="32" t="str">
-        <f aca="false">IF(E11="","",VLOOKUP(E11, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C11" s="32" t="str">
+      <c r="A11" s="36" t="str">
+        <f aca="true">IF(I11="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(L11)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(L11)))))</f>
+        <v/>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>669</v>
+      </c>
+      <c r="C11" s="38" t="str">
         <f aca="false">IF(E11="","",VLOOKUP(E11, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D11" s="32"/>
+      <c r="E11" s="36" t="s">
+        <v>669</v>
+      </c>
       <c r="F11" s="39"/>
-      <c r="G11" s="31" t="str">
+      <c r="G11" s="31" t="n">
         <f aca="true">IF(I11="","",(INDIRECT("M" &amp; ROW() - 1) - M11))</f>
-        <v/>
-      </c>
-      <c r="H11" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="H11" s="32" t="n">
         <f aca="true">IF(I11 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
-        <v/>
+        <v>300</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>669</v>
       </c>
       <c r="J11" s="34" t="n">
         <f aca="true">IF(I11 = "-", -INDIRECT("B" &amp; ROW() - 1),F11)</f>
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="K11" s="33" t="n">
         <f aca="true">IF(I11 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J11)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J11)))), 0)</f>
@@ -44700,7 +44731,7 @@
       </c>
       <c r="L11" s="33" t="n">
         <f aca="false">IF(I11="-",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="33" t="n">
         <f aca="true">IF(K11 = 0, INDIRECT("M" &amp; ROW() - 1), K11)</f>
@@ -52057,7 +52088,7 @@
       <formula>SUMIF(G3:G123,"&gt;0")-SUMIF(G3:G123,"&lt;0") &gt; 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G197 G3:G4">
+  <conditionalFormatting sqref="G12:G197 G3:G4 G8">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(IF(H3="",0, G3)  &gt;= - 0.05* IF(H3="",0,H3), IF(H3="",0, G3) &lt; 0)</formula>
     </cfRule>
@@ -52126,6 +52157,98 @@
       <formula>AND(IF(H7="",0, G7)  &gt;= - 0.05* IF(H7="",0,H7), IF(H7="",0, G7) &lt; 0)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(IF(H9="",0, G9)  &gt;= - 0.05* IF(H9="",0,H9), IF(H9="",0, G9) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(H9="",0, G9)  &lt; - 0.05* IF(H9="",0,H9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(H9="",0, G9)  &gt;= - 0.05* IF(H9="",0,H9), IF(H9="",0, G9) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(IF(H9="",0, G9)  &lt;= 0.05* IF(H9="",0,H9), IF(H9="",0, G9) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>IF(H9="",0,G9)  &gt; 0.05* IF(H9="",0,H9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>IF(H9="",0, G9)  &gt; 0.05* IF(H9="",0,H9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(IF(H9="",0, G9)  &gt;= - 0.05* IF(H9="",0,H9), IF(H9="",0, G9) &lt; 0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(IF(H10="",0, G10)  &gt;= - 0.05* IF(H10="",0,H10), IF(H10="",0, G10) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(H10="",0, G10)  &lt; - 0.05* IF(H10="",0,H10)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(H10="",0, G10)  &gt;= - 0.05* IF(H10="",0,H10), IF(H10="",0, G10) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(IF(H10="",0, G10)  &lt;= 0.05* IF(H10="",0,H10), IF(H10="",0, G10) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>IF(H10="",0,G10)  &gt; 0.05* IF(H10="",0,H10)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>IF(H10="",0, G10)  &gt; 0.05* IF(H10="",0,H10)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(IF(H10="",0, G10)  &gt;= - 0.05* IF(H10="",0,H10), IF(H10="",0, G10) &lt; 0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(IF(H11="",0, G11)  &gt;= - 0.05* IF(H11="",0,H11), IF(H11="",0, G11) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(H11="",0, G11)  &lt; - 0.05* IF(H11="",0,H11)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(H11="",0, G11)  &gt;= - 0.05* IF(H11="",0,H11), IF(H11="",0, G11) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(IF(H11="",0, G11)  &lt;= 0.05* IF(H11="",0,H11), IF(H11="",0, G11) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>IF(H11="",0,G11)  &gt; 0.05* IF(H11="",0,H11)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>IF(H11="",0, G11)  &gt; 0.05* IF(H11="",0,H11)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(IF(H11="",0, G11)  &gt;= - 0.05* IF(H11="",0,H11), IF(H11="",0, G11) &lt; 0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(IF(H11="",0, G11)  &gt;= - 0.05* IF(H11="",0,H11), IF(H11="",0, G11) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(H11="",0, G11)  &lt; - 0.05* IF(H11="",0,H11)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(H11="",0, G11)  &gt;= - 0.05* IF(H11="",0,H11), IF(H11="",0, G11) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(IF(H11="",0, G11)  &lt;= 0.05* IF(H11="",0,H11), IF(H11="",0, G11) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>IF(H11="",0,G11)  &gt; 0.05* IF(H11="",0,H11)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>IF(H11="",0, G11)  &gt; 0.05* IF(H11="",0,H11)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(IF(H11="",0, G11)  &gt;= - 0.05* IF(H11="",0,H11), IF(H11="",0, G11) &lt; 0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E100" type="list">
       <formula1>'SKU Милкпроджект'!$A$1:$A$50</formula1>
